--- a/2020-03-31-covid19-germany-death-rate-by-sex.xlsx
+++ b/2020-03-31-covid19-germany-death-rate-by-sex.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED17B847-4BDE-4B0F-9F57-73143ADF6F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53755FC0-78C5-47FE-8911-B11DF71345F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>https://www.n-tv.de/panorama/Zwei-von-drei-Corona-Toten-sind-Maenner-article21681751.html</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Women</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -119,6 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -403,12 +407,13 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -538,6 +543,25 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>383</v>
+      </c>
+      <c r="C7" s="2">
+        <f>B7/$F7</f>
+        <v>0.65920826161790014</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)</f>
+        <v>198</v>
+      </c>
+      <c r="E7" s="2">
+        <f>D7/$F7</f>
+        <v>0.34079173838209981</v>
+      </c>
       <c r="F7">
         <f>SUM(F2:F6)</f>
         <v>581</v>
@@ -585,9 +609,13 @@
         <f>SUM(D10:D13)</f>
         <v>22590</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <f>C13+E13</f>
         <v>46978</v>
+      </c>
+      <c r="G13" s="2">
+        <f>F13/$E$16</f>
+        <v>0.76414327076352517</v>
       </c>
       <c r="H13" s="2">
         <f>C13/$F13</f>
@@ -608,9 +636,13 @@
       <c r="D14">
         <v>5000</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <f>B14+D14</f>
         <v>11300</v>
+      </c>
+      <c r="G14" s="2">
+        <f>F14/$E$16</f>
+        <v>0.18380558899118385</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -623,9 +655,13 @@
       <c r="D15">
         <v>1700</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <f>B15+D15</f>
         <v>3200</v>
+      </c>
+      <c r="G15" s="2">
+        <f>F15/$E$16</f>
+        <v>5.2051140245290999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -641,9 +677,9 @@
         <f>SUM(B16:D16)</f>
         <v>61478</v>
       </c>
-      <c r="F16" s="2">
-        <f>F7/E16</f>
-        <v>9.4505351507856473E-3</v>
+      <c r="F16" s="7">
+        <f>SUM(F13:F15)</f>
+        <v>61478</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -713,6 +749,12 @@
       <c r="G21" s="6">
         <f t="shared" si="0"/>
         <v>1.6518518518518519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="2">
+        <f>F7/E16</f>
+        <v>9.4505351507856473E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -727,7 +769,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError sqref="D2:D6" formula="1"/>
+    <ignoredError sqref="D2:D7 C7 E7" formula="1"/>
     <ignoredError sqref="C13 E13" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
